--- a/results/mp/logistic/toy-spam/confidence/210/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/210/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,24 +46,24 @@
     <t>waste</t>
   </si>
   <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>poorly</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
     <t>apart</t>
   </si>
   <si>
@@ -76,151 +76,166 @@
     <t>ok</t>
   </si>
   <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>pay</t>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>junk</t>
   </si>
   <si>
     <t>tiny</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
     <t>paint</t>
   </si>
   <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>lasted</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>maybe</t>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>fl</t>
   </si>
   <si>
     <t>picture</t>
   </si>
   <si>
-    <t>fl</t>
+    <t>small</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>worked</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>sound</t>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>work</t>
   </si>
   <si>
     <t>minutes</t>
   </si>
   <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>piece</t>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>nothing</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>hold</t>
+    <t>item</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
     <t>money</t>
   </si>
   <si>
     <t>way</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>look</t>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
+    <t>two</t>
+  </si>
+  <si>
     <t>made</t>
   </si>
   <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>price</t>
+    <t>use</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>highly</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>highly</t>
+    <t>classic</t>
   </si>
   <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>classic</t>
+    <t>elf</t>
   </si>
   <si>
     <t>helicopter</t>
@@ -242,9 +257,6 @@
   </si>
   <si>
     <t>family</t>
-  </si>
-  <si>
-    <t>friends</t>
   </si>
   <si>
     <t>game</t>
@@ -611,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,10 +631,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -680,13 +692,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9736842105263158</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -698,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K3">
-        <v>0.6307692307692307</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L3">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="M3">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -722,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -730,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9662162162162162</v>
+        <v>0.9594594594594594</v>
       </c>
       <c r="C4">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -748,19 +760,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K4">
-        <v>0.6296296296296297</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -772,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -780,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9436619718309859</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="C5">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -798,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K5">
-        <v>0.46875</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -822,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -830,13 +842,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9428571428571428</v>
+        <v>0.941747572815534</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -848,19 +860,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K6">
-        <v>0.4415584415584415</v>
+        <v>0.453125</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -872,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -880,13 +892,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9368932038834952</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C7">
-        <v>193</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>193</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -898,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K7">
-        <v>0.4086021505376344</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -922,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -930,13 +942,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9130434782608695</v>
+        <v>0.9318181818181818</v>
       </c>
       <c r="C8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -948,19 +960,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K8">
-        <v>0.3962264150943396</v>
+        <v>0.3440860215053764</v>
       </c>
       <c r="L8">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -972,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -980,13 +992,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8978494623655914</v>
+        <v>0.9154929577464789</v>
       </c>
       <c r="C9">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="D9">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -998,19 +1010,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K9">
-        <v>0.3035714285714285</v>
+        <v>0.28125</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1022,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1030,13 +1042,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8863636363636364</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="C10">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="D10">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1048,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K10">
-        <v>0.2759336099585062</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="L10">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="M10">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1072,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>349</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1080,13 +1092,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8526315789473684</v>
+        <v>0.8736842105263158</v>
       </c>
       <c r="C11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1098,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K11">
-        <v>0.2309899569583931</v>
+        <v>0.2676348547717842</v>
       </c>
       <c r="L11">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="M11">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1122,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>536</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1130,13 +1142,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7903225806451613</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="C12">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D12">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1148,19 +1160,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K12">
-        <v>0.2140672782874618</v>
+        <v>0.2338593974175036</v>
       </c>
       <c r="L12">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="M12">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1172,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>257</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1180,13 +1192,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7631578947368421</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1198,31 +1210,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K13">
-        <v>0.1427399507793273</v>
+        <v>0.1987767584097859</v>
       </c>
       <c r="L13">
-        <v>174</v>
+        <v>65</v>
       </c>
       <c r="M13">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="N13">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1045</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1230,13 +1242,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7421875</v>
+        <v>0.765625</v>
       </c>
       <c r="C14">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D14">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1248,31 +1260,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K14">
-        <v>0.108433734939759</v>
+        <v>0.1525840853158326</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>148</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1280,13 +1292,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.734375</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C15">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D15">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1298,19 +1310,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K15">
-        <v>0.1058495821727019</v>
+        <v>0.1325301204819277</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1322,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>321</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1330,13 +1342,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7222222222222222</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C16">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1348,19 +1360,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K16">
-        <v>0.07936507936507936</v>
+        <v>0.1114206128133705</v>
       </c>
       <c r="L16">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M16">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1372,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>174</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1380,13 +1392,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7142857142857143</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="C17">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1398,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K17">
-        <v>0.06883116883116883</v>
+        <v>0.07207792207792207</v>
       </c>
       <c r="L17">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M17">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="N17">
         <v>0.99</v>
@@ -1422,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>1434</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1430,13 +1442,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6571428571428571</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1448,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K18">
-        <v>0.05696757230499562</v>
+        <v>0.05959684487291849</v>
       </c>
       <c r="L18">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M18">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1472,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1480,13 +1492,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6481481481481481</v>
+        <v>0.6875</v>
       </c>
       <c r="C19">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D19">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1498,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1506,13 +1518,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5901639344262295</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="C20">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1524,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1532,13 +1544,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.575</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1550,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1558,13 +1570,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="C22">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D22">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1576,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1584,13 +1596,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5555555555555556</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1602,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1610,13 +1622,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5555555555555556</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C24">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D24">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1628,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1636,13 +1648,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5476190476190477</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1654,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1662,13 +1674,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4909090909090909</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1680,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1688,13 +1700,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4691943127962085</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C27">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1706,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>112</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1714,7 +1726,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4523809523809524</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C28">
         <v>19</v>
@@ -1732,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1740,13 +1752,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4107142857142857</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1758,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1766,13 +1778,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3814432989690721</v>
+        <v>0.5</v>
       </c>
       <c r="C30">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D30">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1784,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1792,13 +1804,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3793103448275862</v>
+        <v>0.4691943127962085</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1810,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>36</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1818,13 +1830,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3663366336633663</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="C32">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="D32">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1836,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>128</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1844,13 +1856,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3623188405797101</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="C33">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="D33">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1862,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>220</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1870,13 +1882,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3518518518518519</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="C34">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D34">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1888,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>70</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1896,13 +1908,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3478260869565217</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="C35">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D35">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1914,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1922,13 +1934,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3243243243243243</v>
+        <v>0.3917525773195876</v>
       </c>
       <c r="C36">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D36">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1940,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1948,13 +1960,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3214285714285715</v>
+        <v>0.3652173913043478</v>
       </c>
       <c r="C37">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="D37">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1966,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>38</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1974,13 +1986,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3125</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C38">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D38">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2000,13 +2012,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3012048192771085</v>
+        <v>0.3425925925925926</v>
       </c>
       <c r="C39">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D39">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2018,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2026,13 +2038,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2943037974683544</v>
+        <v>0.3415841584158416</v>
       </c>
       <c r="C40">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D40">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2044,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>223</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2052,13 +2064,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2804878048780488</v>
+        <v>0.3132530120481928</v>
       </c>
       <c r="C41">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D41">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2070,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2078,13 +2090,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2689075630252101</v>
+        <v>0.2879746835443038</v>
       </c>
       <c r="C42">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="D42">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2096,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>87</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2104,13 +2116,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2307692307692308</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="C43">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D43">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2122,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2130,13 +2142,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2027027027027027</v>
+        <v>0.2359550561797753</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D44">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2148,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2156,13 +2168,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.165</v>
+        <v>0.2297297297297297</v>
       </c>
       <c r="C45">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D45">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2174,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>167</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2182,13 +2194,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1623931623931624</v>
+        <v>0.2197802197802198</v>
       </c>
       <c r="C46">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D46">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2200,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>98</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2208,13 +2220,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1582278481012658</v>
+        <v>0.2100840336134454</v>
       </c>
       <c r="C47">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D47">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2226,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>266</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2234,13 +2246,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1578947368421053</v>
+        <v>0.1485507246376812</v>
       </c>
       <c r="C48">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D48">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2252,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>144</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2260,13 +2272,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1376811594202899</v>
+        <v>0.1417322834645669</v>
       </c>
       <c r="C49">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D49">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2278,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>238</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2286,13 +2298,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1328125</v>
+        <v>0.14</v>
       </c>
       <c r="C50">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D50">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2304,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>111</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2312,13 +2324,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.09691629955947137</v>
+        <v>0.1360759493670886</v>
       </c>
       <c r="C51">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D51">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2330,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>410</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2338,25 +2350,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.08517350157728706</v>
+        <v>0.1352941176470588</v>
       </c>
       <c r="C52">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D52">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>290</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2364,13 +2376,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08196721311475409</v>
+        <v>0.1256830601092896</v>
       </c>
       <c r="C53">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D53">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2382,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2390,25 +2402,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.08011869436201781</v>
+        <v>0.09212481426448738</v>
       </c>
       <c r="C54">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D54">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>620</v>
+        <v>611</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2416,13 +2428,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.04310344827586207</v>
+        <v>0.09030837004405286</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D55">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2434,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>333</v>
+        <v>413</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2442,7 +2454,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.02442748091603053</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="C56">
         <v>16</v>
@@ -2460,7 +2472,111 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>639</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.0694006309148265</v>
+      </c>
+      <c r="C57">
+        <v>22</v>
+      </c>
+      <c r="D57">
+        <v>22</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.04657534246575343</v>
+      </c>
+      <c r="C58">
+        <v>17</v>
+      </c>
+      <c r="D58">
+        <v>17</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.04274809160305344</v>
+      </c>
+      <c r="C59">
+        <v>28</v>
+      </c>
+      <c r="D59">
+        <v>28</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.04157043879907621</v>
+      </c>
+      <c r="C60">
+        <v>18</v>
+      </c>
+      <c r="D60">
+        <v>19</v>
+      </c>
+      <c r="E60">
+        <v>0.05</v>
+      </c>
+      <c r="F60">
+        <v>0.95</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
